--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vip-Vipr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vip-Vipr1.xlsx
@@ -528,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1890113333333333</v>
+        <v>0.133054</v>
       </c>
       <c r="H2">
-        <v>0.567034</v>
+        <v>0.399162</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.802565333333333</v>
+        <v>1.372179</v>
       </c>
       <c r="N2">
-        <v>5.407696</v>
+        <v>4.116537</v>
       </c>
       <c r="O2">
-        <v>0.3083214936279398</v>
+        <v>0.2533567233062949</v>
       </c>
       <c r="P2">
-        <v>0.3083214936279398</v>
+        <v>0.2533567233062949</v>
       </c>
       <c r="Q2">
-        <v>0.3407052770737777</v>
+        <v>0.182573904666</v>
       </c>
       <c r="R2">
-        <v>3.066347493664</v>
+        <v>1.643165141994</v>
       </c>
       <c r="S2">
-        <v>0.3083214936279398</v>
+        <v>0.2533567233062949</v>
       </c>
       <c r="T2">
-        <v>0.3083214936279398</v>
+        <v>0.2533567233062949</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1890113333333333</v>
+        <v>0.133054</v>
       </c>
       <c r="H3">
-        <v>0.567034</v>
+        <v>0.399162</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.190375</v>
       </c>
       <c r="O3">
-        <v>0.01085429069041955</v>
+        <v>0.01171683533985869</v>
       </c>
       <c r="P3">
-        <v>0.01085429069041955</v>
+        <v>0.0117168353398587</v>
       </c>
       <c r="Q3">
-        <v>0.01199434419444444</v>
+        <v>0.008443385083333333</v>
       </c>
       <c r="R3">
-        <v>0.10794909775</v>
+        <v>0.07599046575</v>
       </c>
       <c r="S3">
-        <v>0.01085429069041955</v>
+        <v>0.01171683533985869</v>
       </c>
       <c r="T3">
-        <v>0.01085429069041955</v>
+        <v>0.0117168353398587</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1890113333333333</v>
+        <v>0.133054</v>
       </c>
       <c r="H4">
-        <v>0.567034</v>
+        <v>0.399162</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.980358666666667</v>
+        <v>3.980358666666666</v>
       </c>
       <c r="N4">
         <v>11.941076</v>
       </c>
       <c r="O4">
-        <v>0.6808242156816406</v>
+        <v>0.7349264413538463</v>
       </c>
       <c r="P4">
-        <v>0.6808242156816406</v>
+        <v>0.7349264413538463</v>
       </c>
       <c r="Q4">
-        <v>0.7523328987315556</v>
+        <v>0.5296026420346667</v>
       </c>
       <c r="R4">
-        <v>6.770996088584001</v>
+        <v>4.766423778311999</v>
       </c>
       <c r="S4">
-        <v>0.6808242156816406</v>
+        <v>0.7349264413538463</v>
       </c>
       <c r="T4">
-        <v>0.6808242156816406</v>
+        <v>0.7349264413538463</v>
       </c>
     </row>
   </sheetData>
